--- a/data/EvaluationData/Benchmark.xlsx
+++ b/data/EvaluationData/Benchmark.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LukasYe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\pis_project_ss2023_group2\data\EvaluationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF213CC-5CD1-4670-9DDE-15CEC5968C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8D1F67-7C0F-4814-A540-EB8B7FC65246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="3585" windowWidth="21600" windowHeight="11835" xr2:uid="{37C0C367-BD2A-404D-A385-0B560E65F5AC}"/>
+    <workbookView xWindow="-13800" yWindow="-435" windowWidth="12150" windowHeight="11835" xr2:uid="{37C0C367-BD2A-404D-A385-0B560E65F5AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Fault Tolerance</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>Maximum Throughput (%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel i7-7700HQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Throughput time (s)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +129,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -136,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,8 +179,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -170,8 +201,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,11 +224,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -506,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825F5EB2-6A9D-45F4-8571-A79C377EFC4A}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -518,12 +559,13 @@
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>7</v>
@@ -537,14 +579,20 @@
       <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -555,11 +603,20 @@
         <v>186440</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <f>(16627478044300-16626939350800)/1000000000</f>
+        <v>0.53869350000000005</v>
+      </c>
       <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -568,11 +625,20 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <f>(16272385389300-16062553592300)/1000000000</f>
+        <v>209.83179699999999</v>
+      </c>
       <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -583,31 +649,42 @@
         <v>2719776</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <f>(16856616961000-16854631501200)/1000000000</f>
+        <v>1.9854598000000001</v>
+      </c>
       <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data/EvaluationData/Benchmark.xlsx
+++ b/data/EvaluationData/Benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\pis_project_ss2023_group2\data\EvaluationData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasye/Projects/pis_project_ss2023_group2/data/EvaluationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8D1F67-7C0F-4814-A540-EB8B7FC65246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954F9445-22A0-BB42-B693-2C16FD45E59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13800" yWindow="-435" windowWidth="12150" windowHeight="11835" xr2:uid="{37C0C367-BD2A-404D-A385-0B560E65F5AC}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{37C0C367-BD2A-404D-A385-0B560E65F5AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Fault Tolerance</t>
   </si>
@@ -57,18 +57,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Spark</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Kafka Stream</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Flow Latency (ns)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Dynamic Latency (ns)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -81,16 +73,81 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Device</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Intel i7-7700HQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Maximum Throughput time (s)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow Latency (ns)</t>
+  </si>
+  <si>
+    <t>Deployment Effort Checklist</t>
+  </si>
+  <si>
+    <t>Lines of code</t>
+  </si>
+  <si>
+    <t>New Pipeline</t>
+  </si>
+  <si>
+    <t>New PET</t>
+  </si>
+  <si>
+    <t>New Data Source</t>
+  </si>
+  <si>
+    <t>Supplementary</t>
+  </si>
+  <si>
+    <t>Degrees of freedom</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>ApplyPET</t>
+  </si>
+  <si>
+    <t>Sink</t>
+  </si>
+  <si>
+    <t>Fault Tolerance Checklist</t>
+  </si>
+  <si>
+    <t>Check Point</t>
+  </si>
+  <si>
+    <t>Exactly Once</t>
+  </si>
+  <si>
+    <t>State Backends</t>
+  </si>
+  <si>
+    <t>Replication</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Spark Variation 1</t>
+  </si>
+  <si>
+    <t>Spark Variation 2</t>
+  </si>
+  <si>
+    <t>Flink</t>
+  </si>
+  <si>
+    <t>Spark</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -101,7 +158,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -109,7 +166,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -117,14 +174,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -132,13 +189,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +210,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -205,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -228,6 +291,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -235,7 +313,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,40 +625,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825F5EB2-6A9D-45F4-8571-A79C377EFC4A}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="6" width="29.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
@@ -589,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -613,17 +691,19 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>59536</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>131871</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7">
         <v>1</v>
@@ -635,10 +715,10 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -659,12 +739,12 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -674,9 +754,9 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -686,6 +766,541 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>1</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>2</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>3</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>4</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/EvaluationData/Benchmark.xlsx
+++ b/data/EvaluationData/Benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasye/Projects/pis_project_ss2023_group2/data/EvaluationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954F9445-22A0-BB42-B693-2C16FD45E59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D422EA64-80CB-A342-90A4-4F512D003176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{37C0C367-BD2A-404D-A385-0B560E65F5AC}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" xr2:uid="{37C0C367-BD2A-404D-A385-0B560E65F5AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Fault Tolerance</t>
   </si>
@@ -148,6 +148,45 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Protected/ Public</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>2000+</t>
   </si>
 </sst>
 </file>
@@ -268,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -627,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825F5EB2-6A9D-45F4-8571-A79C377EFC4A}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -688,7 +730,9 @@
         <f>(16627478044300-16626939350800)/1000000000</f>
         <v>0.53869350000000005</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" t="s">
         <v>9</v>
@@ -712,7 +756,9 @@
         <f>(16272385389300-16062553592300)/1000000000</f>
         <v>209.83179699999999</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" t="s">
         <v>9</v>
@@ -736,7 +782,9 @@
         <f>(16856616961000-16854631501200)/1000000000</f>
         <v>1.9854598000000001</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" t="s">
         <v>9</v>
@@ -751,7 +799,9 @@
       <c r="D5" s="4"/>
       <c r="E5" s="7"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -763,7 +813,9 @@
       <c r="D6" s="4"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -775,16 +827,39 @@
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="H7" s="5"/>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="8"/>
@@ -792,12 +867,18 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12">
+        <v>60</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="10"/>
@@ -807,16 +888,14 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="D11" s="12">
+        <v>10</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="10"/>
@@ -829,9 +908,11 @@
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="D12" s="12">
+        <v>40</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="10"/>
@@ -844,9 +925,11 @@
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="10"/>
@@ -856,12 +939,18 @@
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="11">
+        <v>2</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="10"/>
@@ -871,16 +960,14 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>2</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="10"/>
@@ -893,9 +980,11 @@
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="10"/>
@@ -908,9 +997,11 @@
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="10"/>
@@ -961,7 +1052,9 @@
       <c r="E20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="8"/>
@@ -984,7 +1077,9 @@
       <c r="E21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="8"/>
@@ -1007,7 +1102,9 @@
       <c r="E22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="8"/>
@@ -1028,7 +1125,9 @@
         <v>33</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="8"/>
@@ -1047,7 +1146,9 @@
       <c r="E24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="8"/>
@@ -1056,10 +1157,18 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -1304,5 +1413,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/EvaluationData/Benchmark.xlsx
+++ b/data/EvaluationData/Benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasye/Projects/pis_project_ss2023_group2/data/EvaluationData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\pis_project_ss2023_group2\data\EvaluationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D422EA64-80CB-A342-90A4-4F512D003176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BED1D9C-EA02-47D5-B0E8-07E4A5742AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" xr2:uid="{37C0C367-BD2A-404D-A385-0B560E65F5AC}"/>
+    <workbookView xWindow="4995" yWindow="1500" windowWidth="22800" windowHeight="12915" xr2:uid="{37C0C367-BD2A-404D-A385-0B560E65F5AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -205,7 +205,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -213,14 +213,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -228,7 +228,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -355,7 +355,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,18 +670,18 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="6" width="29.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -722,7 +722,9 @@
       <c r="C2" s="4">
         <v>186440</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <v>245184</v>
+      </c>
       <c r="E2" s="7">
         <v>1</v>
       </c>
@@ -748,7 +750,9 @@
       <c r="C3" s="4">
         <v>131871</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4">
+        <v>312157</v>
+      </c>
       <c r="E3" s="7">
         <v>1</v>
       </c>
@@ -774,7 +778,9 @@
       <c r="C4" s="4">
         <v>2719776</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>4740593</v>
+      </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>

--- a/data/EvaluationData/Benchmark.xlsx
+++ b/data/EvaluationData/Benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\pis_project_ss2023_group2\data\EvaluationData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasye/Projects/pis_project_ss2023_group2/data/EvaluationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BED1D9C-EA02-47D5-B0E8-07E4A5742AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043831E3-95B7-9B4A-8B04-319A7BA880DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="1500" windowWidth="22800" windowHeight="12915" xr2:uid="{37C0C367-BD2A-404D-A385-0B560E65F5AC}"/>
+    <workbookView xWindow="5000" yWindow="1500" windowWidth="22800" windowHeight="12920" xr2:uid="{37C0C367-BD2A-404D-A385-0B560E65F5AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -205,7 +205,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -213,14 +213,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -228,7 +228,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -355,7 +355,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,18 +670,18 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="6" width="29.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
